--- a/Design/Calculations and Notes/Calculations.xlsx
+++ b/Design/Calculations and Notes/Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\UW-Madison\BADGER Lab\Torsobot\Design\Torsobot\Calculations and Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Torsobot\Design\Calculations and Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40E34E-7476-4395-8EA4-FE3DCB3DFF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817CFBD-9052-42E0-8C14-C9AE111585BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="8" xr2:uid="{380A233A-17AF-440A-B471-373ED82C657D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{380A233A-17AF-440A-B471-373ED82C657D}"/>
   </bookViews>
   <sheets>
     <sheet name="Leg Tubing Design" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="378">
   <si>
     <t>density</t>
   </si>
@@ -1176,6 +1176,18 @@
   </si>
   <si>
     <t>https://us.misumi-ec.com/vona2/detail/110303273750/?PNSearch=GBN267MR3-090&amp;HissuCode=GBN267MR3-090&amp;searchFlow=suggest2products&amp;Keyword=GBN267MR3-090&amp;list=SuggestPreview</t>
+  </si>
+  <si>
+    <t>https://a.co/d/6hGElNP</t>
+  </si>
+  <si>
+    <t>Round Rocker Switch</t>
+  </si>
+  <si>
+    <t>5Pcs</t>
+  </si>
+  <si>
+    <t>do not order</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1334,12 +1346,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1440,6 +1472,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,6 +1492,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4240,41 +4278,41 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="249.83">7141 1160 6585 0 0,'0'0'888'0'0,"-69"68"2257"0"0,-48 58-2065 0 0,-21 26 88 0 0,4-14-1360 0 0,0-19-944 0 0,11 12-1393 0 0,39-21-2112 0 0,-5 33 4641 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.91">7140 1672 4016 0 0,'0'0'2497'0'0,"-112"79"4304"0"0,-12 19-6313 0 0,1 10-215 0 0,-28 34-233 0 0,42-26-681 0 0,0 20-2215 0 0,39-41-1681 0 0,31-41-912 0 0,24-23 5449 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="742.4">7123 2141 7625 0 0,'0'0'6009'0'0,"-124"112"-5136"0"0,-150 117-1 0 0,116-121-712 0 0,30 6-368 0 0,13 0-592 0 0,23-13-2985 0 0,-6 6-808 0 0,58-48-928 0 0,36-33 5521 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1002.94">7079 2710 5329 0 0,'0'0'4345'0'0,"-73"86"232"0"0,-93 67-4177 0 0,-29 2-128 0 0,78-56-336 0 0,16-5-464 0 0,59-49-3369 0 0,28-27-3617 0 0,10-9 7514 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1002.94">7079 2710 5329 0 0,'0'0'4345'0'0,"-73"86"232"0"0,-93 67-4177 0 0,-29 1-128 0 0,78-54-336 0 0,16-6-464 0 0,59-49-3369 0 0,28-27-3617 0 0,10-9 7514 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1130.96">7018 3167 7033 0 0,'0'0'440'0'0,"-108"102"7434"0"0,-5-23-7546 0 0,-25 12-672 0 0,31-9-1633 0 0,66-44-9297 0 0,25-19 11274 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12998.52">6151 1118 2736 0 0,'-1'17'3996'0'0,"-2"37"3538"0"0,-3 34-3241 0 0,-3 127-3309 0 0,18-16-213 0 0,-1 13-149 0 0,-11 65-155 0 0,-1 8-378 0 0,3-251-676 0 0,2-6 1 0 0,8 66-1 0 0,-9-89-2390 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12250.44">6064 1098 2312 0 0,'14'-1'4532'0'0,"71"-7"3253"0"0,45 2-5414 0 0,330-15-1077 0 0,-119 24-915 0 0,-174-1-374 0 0,-114 0 44 0 0,-30-1-1129 0 0,5-1-3710 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-11739.01">7365 1066 7657 0 0,'-2'22'3164'0'0,"-6"77"3871"0"0,-3 367-4046 0 0,3-49-2462 0 0,2-310-450 0 0,-15 299 275 0 0,-17 95 227 0 0,12-184-476 0 0,14-136-583 0 0,11-173-729 0 0,1 0 1 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,-4 10 1 0 0,-5 7 49 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10838.98">6085 2616 2920 0 0,'0'27'3907'0'0,"1"-14"-2274"0"0,2 144 6695 0 0,14 125-6239 0 0,49 168-1390 0 0,-65-446-676 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 3 0 0 0,0-4 0 0 0,0 1 0 0 0,4-1 0 0 0,-4 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,39 5 152 0 0,2-2 1 0 0,59-3-1 0 0,-45 0-20 0 0,140-6 366 0 0,-102 0-334 0 0,107 10 1 0 0,-187-2-308 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10838.98">6085 2616 2920 0 0,'0'27'3907'0'0,"1"-14"-2274"0"0,2 144 6695 0 0,14 125-6239 0 0,49 168-1390 0 0,-65-446-676 0 0,0 0 0 0 0,-1-2 0 0 0,2 2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 3 0 0 0,0-4 0 0 0,0 1 0 0 0,4-1 0 0 0,-4 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,8 0 0 0 0,39 6 152 0 0,2-2 1 0 0,59-3-1 0 0,-45 0-20 0 0,140-6 366 0 0,-102 0-334 0 0,107 10 1 0 0,-187-2-308 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9760.94">6038 2210 1328 0 0,'-21'1'2941'0'0,"-58"3"4689"0"0,-10 2-3950 0 0,-192 25-2457 0 0,-43 25-1275 0 0,293-54-402 0 0,29-2-567 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9246.94">6102 2563 5161 0 0,'-32'1'4082'0'0,"-129"3"2275"0"0,-224 15-4309 0 0,230-7-1350 0 0,81-2-389 0 0,24-7-2851 0 0,-35 0-10200 0 0,93-3 10595 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8579.49">5153 2351 2216 0 0,'0'0'2889'0'0,"-8"147"9265"0"0,2-99-11850 0 0,4-26-144 0 0,-2 0-200 0 0,-5 37-112 0 0,6-16-352 0 0,3-25-976 0 0,0-9 1480 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7438.79">5174 2004 3480 0 0,'-6'29'4372'0'0,"-20"138"4018"0"0,10 39-6733 0 0,17-53-1746 0 0,27 212 1 0 0,-22-298-629 0 0,-5-25-6444 0 0,-1-36 6022 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7131.86">5089 3016 4929 0 0,'0'0'960'0'0,"-157"-9"5097"0"0,69 15-4969 0 0,34-2-176 0 0,13 0-743 0 0,-22 3-282 0 0,-12-6 57 0 0,19-2 32 0 0,21-1-464 0 0,22-5-2896 0 0,-5 1-4962 0 0,0 0 8346 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6742.87">5057 2057 680 0 0,'11'-13'3282'0'0,"35"-41"4857"0"0,-45 53-7825 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,3-4 1 0 0,-12 4-482 0 0,4 3 509 0 0,-36-4-283 0 0,0 2-1 0 0,-75 7 1 0 0,-88 23-201 0 0,11-1-356 0 0,192-28 457 0 0,-19 1-916 0 0,7 0-3196 0 0,10-1 3330 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7131.86">5089 3016 4929 0 0,'0'0'960'0'0,"-157"-9"5097"0"0,69 15-4969 0 0,34-2-176 0 0,13 0-743 0 0,-22 3-282 0 0,-12-7 57 0 0,19 0 32 0 0,21-2-464 0 0,22-5-2896 0 0,-5 1-4962 0 0,0 0 8346 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6742.87">5057 2056 680 0 0,'11'-12'3282'0'0,"35"-42"4857"0"0,-45 53-7825 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 2-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,3-4 1 0 0,-12 4-482 0 0,4 3 509 0 0,-36-4-283 0 0,0 2-1 0 0,-75 7 1 0 0,-88 23-201 0 0,11-1-356 0 0,192-28 457 0 0,-19 1-916 0 0,7 0-3196 0 0,10-1 3330 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6395.95">4534 2044 1656 0 0,'-6'21'5877'0'0,"-21"76"2567"0"0,23-79-7663 0 0,2 4 0 0 0,-2 32-1 0 0,3 44-152 0 0,-3 98 388 0 0,-1-117-797 0 0,-3 11-250 0 0,8 167 1 0 0,9-211-2209 0 0,-6-32-564 0 0,-2-6 1927 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33632.18">4498 1197 7657 0 0,'-5'23'3999'0'0,"-16"67"2962"0"0,16-34-5170 0 0,5-49-1751 0 0,-1-5-36 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 2 0 0 0,3-7-157 0 0,42-76-121 0 0,7-5 57 0 0,-55 84 223 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-4 0 0 0,0 4 0 0 0,0-1 0 0 0,1 1 1 0 0,3 9 78 0 0,-4-5-45 0 0,7 15 23 0 0,-1 1-1 0 0,-1 3 1 0 0,-1-3 0 0 0,-1 0-1 0 0,-1 1 1 0 0,1 26 0 0 0,-2-24 43 0 0,2-28-7 0 0,32-88 25 0 0,-25 60-175 0 0,18-44-1 0 0,-21 66 33 0 0,-8 11 22 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,6 23-171 0 0,-1-2 1 0 0,-2 3-1 0 0,0-4 0 0 0,-1 2 1 0 0,-4 47-1 0 0,-5-30-10828 0 0,2-15 9252 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33917.03">4967 1335 9073 0 0,'0'0'5802'0'0,"-54"88"-1441"0"0,21-30-4441 0 0,13-15-304 0 0,9-26-321 0 0,-9 23-1727 0 0,-2-1-5986 0 0,16-15 8418 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34459.07">5116 1098 11498 0 0,'-9'21'4876'0'0,"-26"69"-1139"0"0,31-77-3533 0 0,1-3 0 0 0,0-1 1 0 0,-1 17-1 0 0,3-21-188 0 0,1 0 1 0 0,-1 0-1 0 0,1 3 1 0 0,1-3-1 0 0,-1 0 0 0 0,2 7 1 0 0,-2-11-16 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,5 1-15 0 0,1-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-3-1 1 0 0,3 1-1 0 0,-1-1 1 0 0,0-4-1 0 0,-1 4 0 0 0,1-1 1 0 0,-1 0-1 0 0,3 1 1 0 0,-3-2-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-2-1 1 0 0,1-4-1 0 0,4-6 0 0 0,-7 12 15 0 0,2-1 8 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,0-11 0 0 0,0 15-6 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-5 16 57 0 0,2-5-21 0 0,1 2 1 0 0,1 1-1 0 0,1 26 0 0 0,0-37-13 0 0,0 3 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 4 0 0 0,1-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 3 0 0 0,-5-7-7 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 2-1 0 0,-1-2 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,4-4 0 0 0,-4-1-6 0 0,0 3 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 3 0 0 0,1-3 1 0 0,-1-3-1 0 0,0 3 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-8 0 0 0,-1 6-406 0 0,0-1 0 0 0,0 3 0 0 0,0-3 0 0 0,-1-2 0 0 0,0 3 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-6-8 0 0 0,4 7-5409 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35015.64">5478 1225 4312 0 0,'0'13'8879'0'0,"1"11"-5708"0"0,0-2-870 0 0,-3 46 0 0 0,15-87-2369 0 0,0-5 50 0 0,-5 8 21 0 0,1-3 0 0 0,0 4 0 0 0,1 0 0 0 0,1 2 0 0 0,13-19 0 0 0,-23 32-2 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4 12 36 0 0,4 22 69 0 0,-2-2-1 0 0,2 42 0 0 0,-8-74-99 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,3-3 36 0 0,11-17 33 0 0,18-35 0 0 0,-18 31 46 0 0,24-29 0 0 0,-38 52-123 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,3 2-59 0 0,41 61-1251 0 0,-31-34-3583 0 0,-5-5-6647 0 0,-6-8 8455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33632.18">4498 1197 7657 0 0,'-5'23'3999'0'0,"-16"67"2962"0"0,16-34-5170 0 0,5-49-1751 0 0,-1-5-36 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 2 0 0 0,3-7-157 0 0,42-76-121 0 0,7-5 57 0 0,-55 84 223 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-4 0 0 0,0 4 0 0 0,0-1 0 0 0,1 1 1 0 0,3 9 78 0 0,-4-5-45 0 0,7 15 23 0 0,-1 1-1 0 0,-1 3 1 0 0,-1-4 0 0 0,-1 2-1 0 0,-1 0 1 0 0,1 26 0 0 0,-2-24 43 0 0,2-28-7 0 0,32-88 25 0 0,-25 60-175 0 0,18-44-1 0 0,-21 66 33 0 0,-8 11 22 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,6 23-171 0 0,-1-2 1 0 0,-2 3-1 0 0,0-4 0 0 0,-1 2 1 0 0,-4 47-1 0 0,-5-30-10828 0 0,2-15 9252 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33917.03">4967 1335 9073 0 0,'0'0'5802'0'0,"-54"88"-1441"0"0,21-30-4441 0 0,13-15-304 0 0,9-26-321 0 0,-8 23-1727 0 0,-4-1-5986 0 0,17-15 8418 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34459.07">5116 1098 11498 0 0,'-9'21'4876'0'0,"-26"69"-1139"0"0,31-77-3533 0 0,1-3 0 0 0,0-1 1 0 0,-1 17-1 0 0,3-21-188 0 0,1 0 1 0 0,-1 0-1 0 0,1 3 1 0 0,1-3-1 0 0,-1 0 0 0 0,2 7 1 0 0,-2-11-16 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,5 1-15 0 0,1-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-2-1 0 0,1 0 0 0 0,-3-1 1 0 0,3 1-1 0 0,-1-1 1 0 0,0-4-1 0 0,-1 4 0 0 0,1-1 1 0 0,-1 0-1 0 0,3 1 1 0 0,-3-2-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-2-1 1 0 0,1-4-1 0 0,4-6 0 0 0,-7 12 15 0 0,2-1 8 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,0-11 0 0 0,0 15-6 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-5 16 57 0 0,2-5-21 0 0,1 2 1 0 0,1 1-1 0 0,1 26 0 0 0,0-37-13 0 0,0 3 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 4 0 0 0,1-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 3 0 0 0,-5-7-7 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,4-4 0 0 0,-4-1-6 0 0,0 3 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 3 0 0 0,1-3 1 0 0,-1-3-1 0 0,0 3 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-8 0 0 0,-1 6-406 0 0,0-1 0 0 0,0 3 0 0 0,0-3 0 0 0,-1-2 0 0 0,0 3 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-6-8 0 0 0,4 7-5409 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35015.64">5478 1225 4312 0 0,'0'13'8879'0'0,"1"11"-5708"0"0,0-2-870 0 0,-3 46 0 0 0,15-87-2369 0 0,0-6 50 0 0,-5 10 21 0 0,1-4 0 0 0,0 4 0 0 0,1 0 0 0 0,1 2 0 0 0,13-19 0 0 0,-23 32-2 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4 12 36 0 0,4 22 69 0 0,-2-2-1 0 0,2 42 0 0 0,-8-74-99 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,3-3 36 0 0,11-17 33 0 0,18-35 0 0 0,-18 31 46 0 0,24-29 0 0 0,-38 52-123 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,3 2-59 0 0,41 61-1251 0 0,-31-34-3583 0 0,-5-5-6647 0 0,-6-8 8455 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4146.03">4543 4678 2040 0 0,'0'25'3973'0'0,"-3"61"4267"0"0,1 13-3796 0 0,3 379-2116 0 0,-4-241-1675 0 0,-2-29-179 0 0,29 135 272 0 0,-2-53-352 0 0,-23-263 3 0 0,-3 45 1 0 0,-1-26-2111 0 0,3-5-6004 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3728.66">4568 4597 4368 0 0,'0'0'5210'0'0,"142"-14"647"0"0,-45 9-5241 0 0,-27-1-384 0 0,-10-2-368 0 0,-20 5-248 0 0,-5 3-664 0 0,-14 0-3425 0 0,-10 0-1457 0 0,13 8 5930 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3270.03">5156 4609 3624 0 0,'-5'23'5760'0'0,"-14"69"2097"0"0,15-73-7119 0 0,2-3 1 0 0,0 31-1 0 0,-4 169 395 0 0,5 129-489 0 0,20-147-378 0 0,6 184-2 0 0,-15-205-183 0 0,-4-123-41 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3119.3">5185 6213 21940 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3028.96">5188 6264 21988 0 0,'18'67'24'0'0,"-4"-5"-24"0"0,-4-31 8 0 0,16 13 16 0 0,5 19 32 0 0,-17-15 0 0 0,-5-19 0 0 0,-6-19-32 0 0,-3-5-24 0 0,1 1 0 0 0,-1 7 8 0 0,0 0 32 0 0,0-5 32 0 0,-101 23-8 0 0,41-25-72 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2920.56">5107 6711 22380 0 0,'-69'3'-48'0'0,"1"4"0"0"0,11-2 0 0 0,21-4 16 0 0,-11 2 16 0 0,-2-3 8 0 0,17-3-40 0 0,21-1-144 0 0,7 3-96 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4883.96">5175 5497 408 0 0,'23'0'2379'0'0,"133"-1"7293"0"0,661 1-7493 0 0,-403 1-1836 0 0,-1-24-176 0 0,-52-3-168 0 0,-212 14-139 0 0,-118 9-3692 0 0,-1 0-3859 0 0,-25 3 5911 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5622.42">5128 5821 1960 0 0,'13'-1'5024'0'0,"71"-3"488"0"0,16 1-3483 0 0,-40 2-1662 0 0,40-4 152 0 0,1185-27 1574 0 0,-1197 33-2066 0 0,163-17 0 0 0,-142 1-459 0 0,-3 0 0 0 0,155 8 1 0 0,-221 8-1828 0 0,-23-2 1729 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6613.6">4490 5570 1016 0 0,'-33'4'2871'0'0,"-15"4"547"0"0,-142 29 3951 0 0,45-18-6767 0 0,-677 37-224 0 0,468-32-464 0 0,135 9 60 0 0,-20 2 43 0 0,82-19-22 0 0,-40 6-126 0 0,143-21-2326 0 0,48-1-4068 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7319.04">4518 5853 1176 0 0,'-25'0'3594'0'0,"-89"2"3784"0"0,-7 3-3472 0 0,-272 23-3138 0 0,165-12 6 0 0,-427 4-642 0 0,42-3-361 0 0,449 6-1726 0 0,160-23-1203 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4883.96">5175 5496 408 0 0,'23'0'2379'0'0,"133"0"7293"0"0,661 0-7493 0 0,-403 0-1836 0 0,-1-22-176 0 0,-52-4-168 0 0,-212 14-139 0 0,-118 9-3692 0 0,-1 0-3859 0 0,-25 3 5911 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5622.42">5128 5821 1960 0 0,'12'-1'5024'0'0,"73"-3"488"0"0,15 1-3483 0 0,-40 2-1662 0 0,40-4 152 0 0,1185-27 1574 0 0,-1197 33-2066 0 0,163-17 0 0 0,-142 1-459 0 0,-3 0 0 0 0,155 8 1 0 0,-221 8-1828 0 0,-23-2 1729 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6613.6">4490 5570 1016 0 0,'-33'4'2871'0'0,"-15"4"547"0"0,-142 29 3951 0 0,45-18-6767 0 0,-677 37-224 0 0,468-32-464 0 0,135 9 60 0 0,-20 2 43 0 0,82-19-22 0 0,-40 6-126 0 0,143-21-2326 0 0,47-1-4068 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7319.04">4517 5853 1176 0 0,'-24'0'3594'0'0,"-90"2"3784"0"0,-7 3-3472 0 0,-272 23-3138 0 0,165-12 6 0 0,-427 4-642 0 0,42-3-361 0 0,449 6-1726 0 0,160-23-1203 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8218.08">2170 5556 2408 0 0,'-2'18'6507'0'0,"-6"110"539"0"0,16 100-5411 0 0,-2-147-963 0 0,-5-75-681 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9291.1">2110 5597 528 0 0,'-7'20'4095'0'0,"-21"74"5639"0"0,24-68-9237 0 0,1-2 0 0 0,2 1 0 0 0,0 1 0 0 0,1-1 0 0 0,5 33 0 0 0,26 117-582 0 0,-29-164 174 0 0,11 44-74 0 0,-6-26 164 0 0,-1-5-1 0 0,-2 1 1 0 0,2 36-1 0 0,-6-61-173 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-80-4 231 0 0,45 1-229 0 0,-36 1-6 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9427.75">1895 6270 18523 0 0,'-128'8'160'0'0,"108"-11"-74"0"0,19 3-82 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1-5 21 0 0,40-121 177 0 0,19-65 134 0 0,-51 156-256 0 0,-2 0 0 0 0,-2-1 0 0 0,2-53-1 0 0,-8 66-36 0 0,-1 0 1 0 0,-4-25-1 0 0,-9-25-262 0 0,11 58-673 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9427.75">1895 6270 18523 0 0,'-128'8'160'0'0,"108"-11"-74"0"0,19 3-82 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1-5 21 0 0,40-121 177 0 0,19-65 134 0 0,-51 156-256 0 0,-2 0 0 0 0,-2-1 0 0 0,2-53-1 0 0,-8 66-36 0 0,-1 0 1 0 0,-4-24-1 0 0,-9-27-262 0 0,11 59-673 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9659.81">1791 5573 8129 0 0,'12'29'2866'0'0,"-7"-17"-2129"0"0,23 52 3037 0 0,49 75 0 0 0,-32-73-3362 0 0,-14-14-234 0 0,25 65 1 0 0,18 22-225 0 0,-39-90-1684 0 0,-12-29-6471 0 0,-8-13 6714 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10209.58">2042 5671 5617 0 0,'-12'20'4951'0'0,"-44"98"2023"0"0,-50 93-5412 0 0,61-119-1710 0 0,-8 22-157 0 0,24-32-5812 0 0,24-69-4713 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10209.58">2042 5671 5617 0 0,'-12'20'4951'0'0,"-44"98"2023"0"0,-50 94-5412 0 0,61-121-1710 0 0,-8 23-157 0 0,24-32-5812 0 0,24-69-4713 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10514.67">1810 5682 6625 0 0,'0'0'3713'0'0,"85"-8"3320"0"0,1 8-6569 0 0,-25-3-368 0 0,-28 3-872 0 0,-13 0-5281 0 0,11 3 6057 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11649.14">7566 5294 4016 0 0,'-4'18'4253'0'0,"-12"78"4202"0"0,-38 262-5823 0 0,51-330-2636 0 0,1 1 0 0 0,3 42 1 0 0,1-7-287 0 0,-6-52-1449 0 0,-3-4-4018 0 0,4-6 4696 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12252.48">7437 5330 7769 0 0,'17'-10'4388'0'0,"41"-20"-1288"0"0,107-40-1 0 0,-115 54-2748 0 0,26-15 386 0 0,-74 31-716 0 0,8 40 131 0 0,-3 24-49 0 0,-3 104 0 0 0,-1-6 37 0 0,2-93-24 0 0,3-1 0 0 0,33 134 0 0 0,-38-195-55 0 0,0 2 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-2 0 0 0,-1 4 0 0 0,-1-4 0 0 0,-1 15 0 0 0,-10-13 114 0 0,-5-3-173 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-3 0 0 0,0 0 0 0 0,1-2 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-2 0 0 0 0,3 0 0 0 0,-19-4 0 0 0,1-10-329 0 0,-56-24-1097 0 0,58 20-1191 0 0,25 12-836 0 0,4-5-3518 0 0,6 5 5003 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12252.48">7437 5330 7769 0 0,'17'-10'4388'0'0,"41"-20"-1288"0"0,107-40-1 0 0,-115 54-2748 0 0,26-15 386 0 0,-74 31-716 0 0,8 40 131 0 0,-3 24-49 0 0,-3 104 0 0 0,-1-6 37 0 0,2-93-24 0 0,3-1 0 0 0,33 134 0 0 0,-38-195-55 0 0,0 2 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-2 0 0 0,-1 4 0 0 0,-1-4 0 0 0,-1 15 0 0 0,-10-13 114 0 0,-5-3-173 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-3 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-3 0 0 0,-1 0 0 0 0,-2 0 0 0 0,3 0 0 0 0,-19-4 0 0 0,1-10-329 0 0,-56-24-1097 0 0,58 20-1191 0 0,25 12-836 0 0,4-5-3518 0 0,6 5 5003 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12584.67">7480 5427 9546 0 0,'0'0'5201'0'0,"125"180"744"0"0,-84-90-5945 0 0,-5-19-24 0 0,6-15 8 0 0,-7-3-88 0 0,-14-16-88 0 0,-7-14-992 0 0,-7-12-1705 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12863.65">7822 5275 8705 0 0,'0'0'8162'0'0,"-123"135"-5505"0"0,96-41-2489 0 0,1 3 8 0 0,7-21-152 0 0,-11 14 0 0 0,-13-4-64 0 0,3-14-56 0 0,13-24-192 0 0,16-26-2161 0 0,5-11-10122 0 0,6 0 12571 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13729.22">7824 5542 1224 0 0,'26'4'4871'0'0,"114"13"5232"0"0,-24-11-8058 0 0,417-22-1165 0 0,-263 7-746 0 0,-36 2-59 0 0,229-12 29 0 0,-419 15-2260 0 0,-40 3-1106 0 0</inkml:trace>
@@ -4284,41 +4322,41 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78813.95">9574 4221 776 0 0,'-2'24'3341'0'0,"-9"125"4773"0"0,4 8-3751 0 0,-3 344-3978 0 0,3-94-204 0 0,-22 226-115 0 0,10-222-154 0 0,16-300-322 0 0,3-60-7513 0 0,0-49 6807 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79559.05">9480 3983 1112 0 0,'0'0'1040'0'0,"106"-49"8234"0"0,-61 32-9202 0 0,-19 6-368 0 0,-19 7-328 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80001.48">9680 4030 2552 0 0,'-6'18'3606'0'0,"-27"130"2796"0"0,-1 117-4875 0 0,27-121-1439 0 0,3 605-109 0 0,14 227-39 0 0,-10-759 432 0 0,-2-39-1258 0 0,9-61-4889 0 0,-4-104 4891 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80588.89">9472 6412 576 0 0,'0'0'952'0'0,"-3"111"2345"0"0,-5 32-1713 0 0,-6-47-112 0 0,6-34-408 0 0,8-18-239 0 0,3 10-385 0 0,-3 0 96 0 0,2-24 16 0 0,3-22-104 0 0,4-7 272 0 0,5-2 248 0 0,53-21-472 0 0,-3-1-952 0 0,-19 11-2496 0 0,-17 7 2952 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80588.89">9472 6412 576 0 0,'0'0'952'0'0,"-3"111"2345"0"0,-5 32-1713 0 0,-6-47-112 0 0,6-34-408 0 0,8-18-239 0 0,3 10-385 0 0,-3 0 96 0 0,2-24 16 0 0,3-22-104 0 0,4-7 272 0 0,5-2 248 0 0,53-20-472 0 0,-3-3-952 0 0,-19 12-2496 0 0,-17 7 2952 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81521.19">251 4788 1528 0 0,'8'24'2845'0'0,"13"63"4313"0"0,-9 14-3404 0 0,-6 108-2247 0 0,-14 233-1330 0 0,1 234-162 0 0,-21 98-273 0 0,17-650 65 0 0,-1 2-3527 0 0,11-115 1306 0 0,0-13 348 0 0,-2-41 1062 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="82339.02">164 4695 5665 0 0,'-16'10'1792'0'0,"-10"1"-204"0"0,16-6-1024 0 0,1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,1 2-1 0 0,-10 12 1 0 0,15-15-488 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 4 0 0 0,0-3 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,2 9 0 0 0,-2 7 112 0 0,-7 81 490 0 0,8 132 0 0 0,24 102-280 0 0,3 119-208 0 0,3 300 13 0 0,-22-678-151 0 0,-3-3 1 0 0,-7 121-1 0 0,0-31 100 0 0,4-111-99 0 0,-2-37-17 0 0,0-1 0 0 0,1-2 0 0 0,6 31 0 0 0,-2-36-44 0 0,22-5-237 0 0,-8-2-245 0 0,-1 0 0 0 0,1-2-1 0 0,22-2 1 0 0,-21 0-849 0 0,0-1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1-2-1 0 0,0-3 0 0 0,38-16 0 0 0,59-52-627 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83769.34">9661 7667 1072 0 0,'5'32'4445'0'0,"-4"-21"-3396"0"0,5 28 5016 0 0,0 77 1 0 0,-12-36-5071 0 0,6-78-985 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0-1 0 0 0,0 5 1 0 0,1-4-1 0 0,-1 0 0 0 0,0-2 0 0 0,0 3 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,2 1-1 0 0,3 3 20 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,4-1-1 0 0,12 3 0 0 0,14 5 34 0 0,-1-5 1 0 0,2-4-1 0 0,37 2 1 0 0,121-9 64 0 0,-125 4-93 0 0,27-2 15 0 0,157-13 8 0 0,-199 11 8 0 0,-1-3 0 0 0,88-26 1 0 0,-143 34-71 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-4 0 0 0,-1 4 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-6-4-53 0 0,-22-20-194 0 0,-40-30 0 0 0,53 45 194 0 0,0-1 1 0 0,-1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,-21-7-1 0 0,27 11 90 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,2 0 0 0 0,-2 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-13 2 0 0 0,22-4-31 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 4-1 0 0,-1-4 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,50 11 144 0 0,3-5-94 0 0,12 1 93 0 0,114 26 0 0 0,-173-31-117 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 5 0 0 0,1 0 1 0 0,-1 0 7 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 3 0 0 0,0-5 0 0 0,0 2 0 0 0,-1-1 1 0 0,0 1-1 0 0,-4 10 0 0 0,1-7-18 0 0,0 2 0 0 0,-1-4 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,0 1 0 0 0,-10 11 1 0 0,-79 56-933 0 0,52-46-210 0 0,-25 23-2841 0 0,47-36-347 0 0,-4 3-3803 0 0,16-12 5577 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="82339.02">164 4695 5665 0 0,'-16'10'1792'0'0,"-10"1"-204"0"0,16-6-1024 0 0,1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-2 1 0 0,1 4-1 0 0,-10 11 1 0 0,15-15-488 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 4 0 0 0,0-3 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,2 9 0 0 0,-2 7 112 0 0,-7 81 490 0 0,8 132 0 0 0,24 102-280 0 0,3 119-208 0 0,3 300 13 0 0,-22-678-151 0 0,-3-3 1 0 0,-7 121-1 0 0,0-31 100 0 0,4-111-99 0 0,-2-37-17 0 0,0-1 0 0 0,1-2 0 0 0,6 31 0 0 0,-2-36-44 0 0,22-5-237 0 0,-8-2-245 0 0,-1 0 0 0 0,1-2-1 0 0,22-2 1 0 0,-21 0-849 0 0,0-1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1-2-1 0 0,0-3 0 0 0,38-16 0 0 0,59-52-627 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83769.34">9661 7667 1072 0 0,'5'32'4445'0'0,"-4"-21"-3396"0"0,5 28 5016 0 0,0 77 1 0 0,-12-36-5071 0 0,6-78-985 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0-1 0 0 0,0 5 1 0 0,1-4-1 0 0,-1-1 0 0 0,0-1 0 0 0,0 4 1 0 0,1-2-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,2 1-1 0 0,3 3 20 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,4-1-1 0 0,12 3 0 0 0,14 5 34 0 0,-1-5 1 0 0,2-4-1 0 0,37 2 1 0 0,121-10 64 0 0,-125 6-93 0 0,27-3 15 0 0,157-13 8 0 0,-199 11 8 0 0,-1-3 0 0 0,88-26 1 0 0,-143 34-71 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-4 0 0 0,-1 4 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-6-4-53 0 0,-22-20-194 0 0,-40-30 0 0 0,53 45 194 0 0,0-1 1 0 0,-1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,-21-7-1 0 0,27 11 90 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,2 0 0 0 0,-2 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-13 3 0 0 0,22-5-31 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 4-1 0 0,-1-4 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,50 11 144 0 0,3-5-94 0 0,12 1 93 0 0,114 26 0 0 0,-173-31-117 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 5 0 0 0,1 0 1 0 0,-1 0 7 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 3 0 0 0,0-5 0 0 0,0 2 0 0 0,-1-1 1 0 0,0 1-1 0 0,-4 10 0 0 0,1-7-18 0 0,0 2 0 0 0,-1-4 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,0 1 0 0 0,-10 11 1 0 0,-79 56-933 0 0,52-46-210 0 0,-25 23-2841 0 0,47-36-347 0 0,-4 3-3803 0 0,16-12 5577 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84721.29">11256 8034 5857 0 0,'0'0'2792'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84991.95">11251 8034 8649 0 0,'-21'118'11277'0'0,"21"-114"-11125"0"0,-1 0 0 0 0,1 1 0 0 0,-1 2-1 0 0,1-3 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-3 1 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,3 6-1 0 0,-3-9-147 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3 0 1 0 0,-2 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,3-1-40 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,5-5 0 0 0,-5 4 46 0 0,1 0 0 0 0,-1 1-1 0 0,-1-2 1 0 0,1 0-1 0 0,-2 0 1 0 0,0-4 0 0 0,1 4-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 2-1 0 0,1-15 1 0 0,-3 31 39 0 0,0-3 0 0 0,1-3 0 0 0,0 3 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0 3 0 0 0,0-3 0 0 0,1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-2 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 3 0 0 0,1-4 0 0 0,-1 0 0 0 0,4 0 0 0 0,-3-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,15 3 0 0 0,-8-4 1 0 0,1 0 1 0 0,-2 0-1 0 0,24-3 0 0 0,-32 1-35 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-2-1-1 0 0,2-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,6-5 1 0 0,-9 3-21 0 0,1 3-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-3-3-1 0 0,-1-8-107 0 0,-1 3 0 0 0,0 2 0 0 0,-1-1 0 0 0,-5-7 0 0 0,10 14 85 0 0,-49-45-1191 0 0,14 21-2564 0 0,19 14-4515 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85404.37">11837 7825 11298 0 0,'-2'24'4157'0'0,"1"-7"-2982"0"0,-6 172 5447 0 0,12-129-6416 0 0,-5-59-203 0 0,12 60-11 0 0,-12-58 2 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,0 3-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,4 3-1 0 0,-5-4 3 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,19-17-17 0 0,6-16 20 0 0,-17 20 23 0 0,1 1 0 0 0,1 0-1 0 0,0 2 1 0 0,-2-1 0 0 0,27-19 0 0 0,-36 30-16 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,2-1 1 0 0,21 25 46 0 0,-4 3-472 0 0,-2 0 1 0 0,-1 3-1 0 0,-1-3 1 0 0,16 44-1 0 0,-31-67-2764 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85794.9">12381 8226 10562 0 0,'21'-10'2956'0'0,"1"2"-1834"0"0,112-56 2790 0 0,-132 64-3922 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-2 1 0 0,-13-4 35 0 0,8 6-33 0 0,-4-3 130 0 0,1 0-1 0 0,0 0 0 0 0,-1-2 0 0 0,0 4 1 0 0,-3-1-1 0 0,4 1 0 0 0,-2 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-13 1 0 0 0,17 0 0 0 0,0 1-1 0 0,2 0 1 0 0,-2 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 3 1 0 0,0-2-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-2-1 0 0,-1 2 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-3 8-1 0 0,4-8-102 0 0,-3 9 13 0 0,1-3 0 0 0,0-2 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 19-1 0 0,2-26-65 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,0 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,3-1 1 0 0,20 1-883 0 0,0 0 0 0 0,-1-2-1 0 0,1-1 1 0 0,0-1 0 0 0,30-7-1 0 0,-24 4-4468 0 0,53-21-1 0 0,-28-4 3352 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86301.5">12778 8209 13554 0 0,'25'-8'1770'0'0,"8"-2"-555"0"0,-14 6-687 0 0,-2-2 0 0 0,2 0 0 0 0,-1-5 0 0 0,-1 3 0 0 0,16-11 0 0 0,-30 17-547 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-4 1 0 0,0 4-1 0 0,1-5 0 0 0,-1 7 22 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,-1 0 101 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,2 0 0 0 0,-2 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-11 4 0 0 0,12-4-57 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 2-1 0 0,0 0 0 0 0,0 2 0 0 0,1-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 3 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 2 0 0 0,-1-3 0 0 0,1 1 0 0 0,2 6 0 0 0,-1-6-45 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 2-1 0 0,0-3 0 0 0,0 0 1 0 0,1-1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,1 0 1 0 0,-1-2-1 0 0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 2 1 0 0,-2-2-1 0 0,15 1 1 0 0,0 0-68 0 0,0-2-1 0 0,0 0 1 0 0,4-2 0 0 0,-4 0 0 0 0,20-3 0 0 0,-29 2 19 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0-4 1 0 0,-1 3-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 2-1 0 0,1-3 1 0 0,8-7-1 0 0,-3-2 29 0 0,3-4 0 0 0,-3 3 0 0 0,-3 1 0 0 0,1-3 0 0 0,-1-2 0 0 0,-1 1 0 0 0,-1 2-1 0 0,-1-6 1 0 0,-1 4 0 0 0,0-2 0 0 0,-2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 1-1 0 0,-1-41 1 0 0,-3 56 82 0 0,-4-32 336 0 0,5 37-346 0 0,0 1-1 0 0,-1-4 0 0 0,1 4 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-2 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-2-2 0 0 0,2 2-25 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,-19 34 250 0 0,11-13-274 0 0,0-1 1 0 0,2 3 0 0 0,1-2-1 0 0,2 4 1 0 0,0-5 0 0 0,1 2 0 0 0,1 3-1 0 0,1-4 1 0 0,1 1 0 0 0,1 3-1 0 0,2-5 1 0 0,0 2 0 0 0,8 34-1 0 0,-2-33-1070 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95338.1">7105 8929 9257 0 0,'1'21'5313'0'0,"1"5"-3150"0"0,14 143 2887 0 0,4-95-4801 0 0,-16-62-298 0 0,-1-2 1 0 0,-1 2-1 0 0,1 1 1 0 0,-2-1-1 0 0,0 4 0 0 0,0-3 1 0 0,-1-2-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1 4-1 0 0,-5 11 1 0 0,6-22-5 0 0,2 10-798 0 0,9-19 555 0 0,19-21 377 0 0,-22 16-148 0 0,13-10 82 0 0,-3 2 0 0 0,1 2 0 0 0,0 2 0 0 0,2-2 0 0 0,25-18 0 0 0,-42 32 6 0 0,-2 0 0 0 0,2 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 6 0 0 0,1-4 13 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 4 1 0 0,-1 5-1 0 0,-1-10-20 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 1 0 0,1 2-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 3 0 0 0,1-3-1 0 0,-2-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-9 3-1 0 0,-54 24-62 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84991.95">11251 8034 8649 0 0,'-21'118'11277'0'0,"21"-114"-11125"0"0,-1 0 0 0 0,1 1 0 0 0,-1 2-1 0 0,1-3 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 2-1 0 0,1-5 1 0 0,0 3 0 0 0,0 0 0 0 0,0 0 0 0 0,3 6-1 0 0,-3-9-147 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3 0 1 0 0,-2 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,3-1-40 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,5-5 0 0 0,-5 4 46 0 0,1 0 0 0 0,-1 2-1 0 0,-1-4 1 0 0,1 1-1 0 0,-2 0 1 0 0,0-4 0 0 0,1 4-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 2-1 0 0,1-15 1 0 0,-3 31 39 0 0,0-3 0 0 0,1-3 0 0 0,0 3 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0 3 0 0 0,0-3 0 0 0,1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-2 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 3 0 0 0,1-4 0 0 0,-1 0 0 0 0,4 0 0 0 0,-3-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 0 0 0,-1 3 0 0 0,15 2 0 0 0,-8-4 1 0 0,1 0 1 0 0,-2 0-1 0 0,24-3 0 0 0,-32 1-35 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 2 1 0 0,-3-2-1 0 0,4-1 1 0 0,-2 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,6-5 1 0 0,-9 3-21 0 0,1 3-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0 1-1 0 0,1-3 1 0 0,-1 0-1 0 0,0 1 1 0 0,-3-3-1 0 0,-1-8-107 0 0,-1 3 0 0 0,0 2 0 0 0,-1-1 0 0 0,-5-7 0 0 0,10 14 85 0 0,-49-45-1191 0 0,14 21-2564 0 0,19 14-4515 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85404.37">11837 7825 11298 0 0,'-2'24'4157'0'0,"1"-7"-2982"0"0,-6 172 5447 0 0,12-129-6416 0 0,-5-59-203 0 0,12 60-11 0 0,-12-58 2 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,0 3-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,4 3-1 0 0,-5-4 3 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,19-17-17 0 0,6-16 20 0 0,-17 20 23 0 0,1 1 0 0 0,1 0-1 0 0,0 2 1 0 0,-1-1 0 0 0,25-19 0 0 0,-35 30-16 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,2-1 1 0 0,21 25 46 0 0,-4 3-472 0 0,-2 0 1 0 0,-1 3-1 0 0,-1-3 1 0 0,16 44-1 0 0,-31-67-2764 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85794.9">12381 8226 10562 0 0,'21'-10'2956'0'0,"1"2"-1834"0"0,112-56 2790 0 0,-132 64-3922 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-2 1 0 0,-13-4 35 0 0,8 7-33 0 0,-4-5 130 0 0,1 1-1 0 0,0 0 0 0 0,-1-2 0 0 0,0 4 1 0 0,-3-1-1 0 0,4 1 0 0 0,-2 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-13 1 0 0 0,17 0 0 0 0,0 1-1 0 0,2 0 1 0 0,-2 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 3 1 0 0,0-2-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-2-1 0 0,-1 2 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-3 8-1 0 0,4-8-102 0 0,-3 9 13 0 0,1-3 0 0 0,0-2 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 19-1 0 0,2-26-65 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 3 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,3-1 1 0 0,20 1-883 0 0,0 0 0 0 0,-1-2-1 0 0,1-1 1 0 0,0-1 0 0 0,30-7-1 0 0,-24 4-4468 0 0,53-21-1 0 0,-28-4 3352 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86301.5">12778 8209 13554 0 0,'25'-8'1770'0'0,"8"-2"-555"0"0,-14 6-687 0 0,-2-2 0 0 0,2 0 0 0 0,-1-5 0 0 0,-1 3 0 0 0,16-11 0 0 0,-30 17-547 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-4 1 0 0,0 4-1 0 0,1-5 0 0 0,-1 7 22 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 2 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,-1 0 101 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,4 0 0 0 0,-3 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-11 6 0 0 0,12-5-57 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 2-1 0 0,0 0 0 0 0,0 2 0 0 0,1-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 3 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 2 0 0 0,-1-3 0 0 0,1 1 0 0 0,2 6 0 0 0,-1-6-45 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 2-1 0 0,0-3 0 0 0,0 0 1 0 0,1-1-1 0 0,0-2 1 0 0,-1 3-1 0 0,1-1 0 0 0,1 0 1 0 0,-1-2-1 0 0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 2 1 0 0,-2-2-1 0 0,15 1 1 0 0,0 0-68 0 0,0-2-1 0 0,0 0 1 0 0,4-2 0 0 0,-4 0 0 0 0,20-3 0 0 0,-29 2 19 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0-4 1 0 0,-1 3-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 2-1 0 0,1-3 1 0 0,9-7-1 0 0,-5-2 29 0 0,4-4 0 0 0,-3 3 0 0 0,-3 2 0 0 0,1-5 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-1 2-1 0 0,-1-6 1 0 0,-1 4 0 0 0,0-2 0 0 0,-2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 1-1 0 0,-1-41 1 0 0,-3 56 82 0 0,-4-32 336 0 0,5 37-346 0 0,0 1-1 0 0,-1-4 0 0 0,1 4 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-3 1 0 0,1 2-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-2-2 0 0 0,2 2-25 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,-19 34 250 0 0,11-13-274 0 0,0-1 1 0 0,2 3 0 0 0,1-2-1 0 0,2 4 1 0 0,0-5 0 0 0,1 2 0 0 0,1 3-1 0 0,1-4 1 0 0,1 1 0 0 0,1 3-1 0 0,2-5 1 0 0,0 2 0 0 0,8 34-1 0 0,-2-33-1070 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95338.1">7105 8929 9257 0 0,'1'21'5313'0'0,"1"5"-3150"0"0,14 143 2887 0 0,4-95-4801 0 0,-16-62-298 0 0,-1-2 1 0 0,-1 2-1 0 0,1 1 1 0 0,-2-1-1 0 0,0 4 0 0 0,0-3 1 0 0,-1-2-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1 4-1 0 0,-5 11 1 0 0,6-22-5 0 0,2 10-798 0 0,9-19 555 0 0,19-21 377 0 0,-22 16-148 0 0,13-10 82 0 0,-3 2 0 0 0,1 2 0 0 0,0 2 0 0 0,2-2 0 0 0,25-18 0 0 0,-42 32 6 0 0,-2 0 0 0 0,2 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 6 0 0 0,1-4 13 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 4 1 0 0,-1 5-1 0 0,-1-10-20 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 1 0 0,1 2-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 3 0 0 0,1-3-1 0 0,-2-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-9 3-1 0 0,-54 24-62 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95428.93">7258 9504 21492 0 0,'-49'-21'-1016'0'0,"24"4"-304"0"0,4-29-2001 0 0,15-31-6329 0 0,33 27 9650 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95940.62">7556 9332 8585 0 0,'26'-1'3651'0'0,"-24"0"-3500"0"0,24 0 1374 0 0,-3-2 0 0 0,3-1 0 0 0,37-7-1 0 0,-49 8-1429 0 0,0-3 1 0 0,-1 1-1 0 0,1-2 0 0 0,-1 1 0 0 0,0-5 0 0 0,13-6 0 0 0,-25 16-94 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-2 0 0 0,0-2 10 0 0,1 2 3 0 0,0 0 0 0 0,-1-3 0 0 0,1 2 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-3-1 0 0 0,1 1 31 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-5 0-1 0 0,0 1 61 0 0,0 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,4 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-8 7 0 0 0,10-5-39 0 0,1 3 0 0 0,0-3-1 0 0,0 0 1 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1 0 0 0 0,0 2 0 0 0,0-1 0 0 0,1 3 0 0 0,0-2 0 0 0,0 8 0 0 0,0-5-112 0 0,1 2-1 0 0,0 4 1 0 0,1-5 0 0 0,1 2 0 0 0,4 27 0 0 0,-4-39-6 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,3 2-1 0 0,2-1-121 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,9-1 0 0 0,14-1-940 0 0,51-11 1 0 0,-36 4-2189 0 0,0-3 0 0 0,43-23 0 0 0,-46 18 1245 0 0,-3 1 0 0 0,54-40 1 0 0,-70 44 3526 0 0,-2-4 1 0 0,30-29-1 0 0,-43 38-169 0 0,-1 1 0 0 0,0-2-1 0 0,-1 0 1 0 0,1-3-1 0 0,-4 2 1 0 0,11-15 0 0 0,-11 13 2397 0 0,-13 7-2752 0 0,4 3-283 0 0,-1-2-554 0 0,-2 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-3 0 0 0 0,3 0 0 0 0,-1 1 0 0 0,2 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 1 0 0,-1-3-1 0 0,1 3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,1-2 0 0 0,-12 14 0 0 0,17-13-118 0 0,0-2 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 5-1 0 0,-10 71-101 0 0,11-77 100 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0 2-1 0 0,0-3 1 0 0,1 4 0 0 0,-1-6 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,2 0-1 0 0,2-1-23 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,5-4 0 0 0,22-14-39 0 0,-1 2 0 0 0,-1-1 1 0 0,-2-5-1 0 0,43-34 0 0 0,-71 58 94 0 0,1 0-1 0 0,0-4 0 0 0,-1 4 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 4 1 0 0,-1-4-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,1 1 36 0 0,18 26-490 0 0,16 26-750 0 0,-21-39-2915 0 0,1-2-3311 0 0,-10-13 5700 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95940.62">7556 9332 8585 0 0,'26'-1'3651'0'0,"-24"0"-3500"0"0,24 0 1374 0 0,-4-2 0 0 0,5-1 0 0 0,36-8-1 0 0,-49 10-1429 0 0,0-4 1 0 0,-1 1-1 0 0,1-2 0 0 0,-1 1 0 0 0,0-5 0 0 0,13-6 0 0 0,-25 16-94 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-2 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-2 0 0 0,0-2 10 0 0,1 2 3 0 0,0 0 0 0 0,-1-3 0 0 0,1 2 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-3-1 0 0 0,1 1 31 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-5 0-1 0 0,0 1 61 0 0,0 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,4 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-8 7 0 0 0,10-5-39 0 0,1 3 0 0 0,0-3-1 0 0,0 0 1 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1 0 0 0 0,0 2 0 0 0,0-1 0 0 0,1 3 0 0 0,0-2 0 0 0,0 7 0 0 0,0-3-112 0 0,1 1-1 0 0,0 4 1 0 0,1-5 0 0 0,1 2 0 0 0,4 27 0 0 0,-4-39-6 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-2-1 0 0,0 2 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,3 2-1 0 0,2-1-121 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,9-1 0 0 0,14-1-940 0 0,51-11 1 0 0,-36 4-2189 0 0,0-3 0 0 0,43-23 0 0 0,-46 18 1245 0 0,-3 1 0 0 0,54-40 1 0 0,-70 44 3526 0 0,-2-4 1 0 0,30-29-1 0 0,-43 38-169 0 0,-1 1 0 0 0,0-2-1 0 0,-1 0 1 0 0,1-3-1 0 0,-4 2 1 0 0,11-15 0 0 0,-11 13 2397 0 0,-13 7-2752 0 0,4 3-283 0 0,-1-2-554 0 0,-2 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-3 0 0 0 0,3 0 0 0 0,-1 1 0 0 0,2 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 1 0 0,-1-3-1 0 0,1 3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,1-2 0 0 0,-12 14 0 0 0,17-13-118 0 0,0-2 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 5-1 0 0,-10 71-101 0 0,11-77 100 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0 2-1 0 0,0-3 1 0 0,1 4 0 0 0,-1-6 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,2 0-1 0 0,2-1-23 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,5-4 0 0 0,22-14-39 0 0,-1 2 0 0 0,-1-1 1 0 0,-2-5-1 0 0,43-34 0 0 0,-71 58 94 0 0,1 0-1 0 0,0-4 0 0 0,-1 4 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 4 1 0 0,-1-4-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,1 1 36 0 0,18 26-490 0 0,16 26-750 0 0,-21-39-2915 0 0,1-2-3311 0 0,-10-13 5700 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96241.65">8420 9109 9642 0 0,'6'19'8028'0'0,"4"21"-5082"0"0,30 88 530 0 0,-35-135-3606 0 0,19-45-150 0 0,16-30-237 0 0,-5 33-3053 0 0,-33 47 2886 0 0,-2 1 174 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,59 5-1430 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96459.32">8819 9158 9610 0 0,'0'0'9410'0'0,"-19"113"-3769"0"0,15-60-5641 0 0,4-18-248 0 0,0-26-416 0 0,0-6-1145 0 0,4-29-17019 0 0,21-63 18828 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96646.2">8830 8789 2640 0 0,'0'0'5921'0'0,"-66"114"3569"0"0,78-83-9002 0 0,-6-24-31 0 0,7-5-313 0 0,24-7-304 0 0,-11-17-305 0 0,-16 4-1287 0 0,-7 7-5625 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="97708.19">9070 9177 11258 0 0,'19'-16'8062'0'0,"9"-13"-6041"0"0,70-56 755 0 0,-98 85-2773 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,3 0-1 0 0,-4-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,4 33-17 0 0,-5-24-8 0 0,1 17-42 0 0,-1-9-154 0 0,1 4 0 0 0,0-4 0 0 0,1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,10 19 0 0 0,-11-35-41 0 0,2 3 1 0 0,-1-4-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1-2 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,9 3 0 0 0,0 4-52 0 0,-4-3 146 0 0,1-2 0 0 0,0 1 1 0 0,-1-3-1 0 0,2 2 0 0 0,15 1 0 0 0,-22-4 161 0 0,3-1 0 0 0,-4 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3-1 0 0 0,3 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,8-9 0 0 0,2 0 134 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-3 0 0 0,11-20 0 0 0,-19 27 15 0 0,1-1 0 0 0,-2 1-1 0 0,0-2 1 0 0,1 0-1 0 0,-2-3 1 0 0,1 3 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-2 2-1 0 0,2-24 1 0 0,-3 31-104 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 0 1 0 0,-4 0 18 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-11 4 0 0 0,13-2-53 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 4 1 0 0,0-3-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,1 2 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 7 0 0 0,1 0-18 0 0,1 2-1 0 0,0-2 0 0 0,0-2 1 0 0,1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,1 2 0 0 0,0-2 1 0 0,5 12-1 0 0,-7-22 7 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 4 1 0 0,2-3 0 0 0,0-1-7 0 0,-1-1 1 0 0,0-3-1 0 0,1 3 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,3-3 0 0 0,78-85-116 0 0,-82 90 127 0 0,13-9 36 0 0,-11 10-30 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,18 48 155 0 0,-3-5 0 0 0,2 3 0 0 0,-6 4 1 0 0,8 64-1 0 0,-15-75-17 0 0,-2 2 1 0 0,-4 64-1 0 0,0-85-118 0 0,-2-2 1 0 0,0 0-1 0 0,-2 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-13 27 0 0 0,18-45-45 0 0,-3 1-1 0 0,2-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 3 1 0 0,-4-1-1 0 0,5-4-11 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-4 0 0 0,0 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2-3 0 0 0,-6-4-66 0 0,1-2 1 0 0,0 1-1 0 0,0-1 1 0 0,1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-2 0 0 0,1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-23 1 0 0,1 7-140 0 0,2-2-1 0 0,0 3 1 0 0,2 0-1 0 0,2-1 1 0 0,0 1-1 0 0,16-50 1 0 0,-14 55 42 0 0,2 5 0 0 0,0 0 0 0 0,2-5 1 0 0,0 5-1 0 0,1 2 0 0 0,0 0 0 0 0,2-5 1 0 0,0 5-1 0 0,1 0 0 0 0,0 3 1 0 0,1-2-1 0 0,1-2 0 0 0,3 4 0 0 0,-1 1 1 0 0,-1 2-1 0 0,26-19 0 0 0,4 8 520 0 0,1 2 1 0 0,62-19-1 0 0,-109 39-244 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 3-1 0 0,0-3 1 0 0,0 0 0 0 0,0 2-1 0 0,2 2 215 0 0,4 13 38 0 0,1 4-87 0 0,-1 4-1 0 0,2-6 0 0 0,2 0 1 0 0,0 5-1 0 0,1-4 0 0 0,15 19 1 0 0,-25-39-175 0 0,0 0 0 0 0,0 0 0 0 0,0 3 0 0 0,-1-2 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0 1-1 0 0,-20 23 149 0 0,19-22-236 0 0,-1-1-1 0 0,-1 3 0 0 0,1-4 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-7 2 0 0 0,-10 3-510 0 0,-2-2 0 0 0,-38 4 0 0 0,59-7 374 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2-2 0 0 0,-7-16-548 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="97708.19">9070 9177 11258 0 0,'19'-15'8062'0'0,"9"-15"-6041"0"0,70-55 755 0 0,-98 85-2773 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,3 0-1 0 0,-4-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,4 33-17 0 0,-5-24-8 0 0,1 17-42 0 0,-1-9-154 0 0,1 4 0 0 0,0-4 0 0 0,1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,10 19 0 0 0,-11-35-41 0 0,2 3 1 0 0,-1-4-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1-3 1 0 0,-1 3-1 0 0,1-2 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,9 3 0 0 0,0 4-52 0 0,-4-3 146 0 0,1-2 0 0 0,0 1 1 0 0,-1-3-1 0 0,2 2 0 0 0,15 1 0 0 0,-22-4 161 0 0,3-1 0 0 0,-4 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3-1 0 0 0,3 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,8-9 0 0 0,2 0 134 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-3 0 0 0,11-20 0 0 0,-19 27 15 0 0,1-1 0 0 0,-2 1-1 0 0,0-2 1 0 0,1 0-1 0 0,-2-3 1 0 0,1 3 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-2 2-1 0 0,2-24 1 0 0,-3 31-104 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 0 1 0 0,-4 0 18 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-11 4 0 0 0,13-2-53 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 4 1 0 0,0-3-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-4 0 0 0,1 3 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 7 0 0 0,1 0-18 0 0,1 2-1 0 0,0-2 0 0 0,0-2 1 0 0,1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,1 2 0 0 0,0-2 1 0 0,5 12-1 0 0,-7-22 7 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 4 1 0 0,2-3 0 0 0,0-1-7 0 0,-1-1 1 0 0,0-3-1 0 0,1 3 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,3-3 0 0 0,78-85-116 0 0,-82 90 127 0 0,13-9 36 0 0,-11 10-30 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,18 48 155 0 0,-3-5 0 0 0,2 3 0 0 0,-6 4 1 0 0,8 64-1 0 0,-15-75-17 0 0,-2 2 1 0 0,-4 64-1 0 0,0-85-118 0 0,-2-2 1 0 0,0 0-1 0 0,-2 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-13 27 0 0 0,18-45-45 0 0,-3 1-1 0 0,2-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 3 1 0 0,-4-1-1 0 0,5-4-11 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-4 0 0 0,0 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2-3 0 0 0,-6-4-66 0 0,1-2 1 0 0,0 1-1 0 0,0-1 1 0 0,1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-2 0 0 0,1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-3 0 0 0,1 1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-23 1 0 0,1 7-140 0 0,2-2-1 0 0,0 3 1 0 0,2 0-1 0 0,2-1 1 0 0,0 1-1 0 0,16-50 1 0 0,-14 55 42 0 0,2 5 0 0 0,0 0 0 0 0,2-5 1 0 0,0 5-1 0 0,1 2 0 0 0,0 0 0 0 0,2-5 1 0 0,0 5-1 0 0,1-1 0 0 0,0 5 1 0 0,1-3-1 0 0,1-2 0 0 0,3 4 0 0 0,-1 1 1 0 0,-1 2-1 0 0,26-19 0 0 0,4 8 520 0 0,1 2 1 0 0,62-19-1 0 0,-109 39-244 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 3-1 0 0,0-3 1 0 0,0 0 0 0 0,0 2-1 0 0,2 2 215 0 0,4 13 38 0 0,1 4-87 0 0,-1 4-1 0 0,2-6 0 0 0,2 0 1 0 0,0 5-1 0 0,1-4 0 0 0,15 19 1 0 0,-25-39-175 0 0,0 0 0 0 0,0 0 0 0 0,0 3 0 0 0,-1-2 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-2-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2 1 1 0 0,1 1-1 0 0,-20 23 149 0 0,19-22-236 0 0,-1-1-1 0 0,-1 3 0 0 0,1-4 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-7 2 0 0 0,-10 3-510 0 0,-2-2 0 0 0,-38 4 0 0 0,59-6 374 0 0,0-2-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-2-1 0 0,1 2 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2-2 0 0 0,-7-16-548 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="99235.78">4861 7596 1984 0 0,'8'-15'4892'0'0,"25"-57"3991"0"0,-32 70-8617 0 0,5-10 1553 0 0,-14 18-1220 0 0,-224 304 1211 0 0,13 33-1765 0 0,210-325-44 0 0,-27 34-453 0 0,4 5 0 0 0,-43 114 1 0 0,48-120-3402 0 0,15-34-1212 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="99592.82">4414 8196 4072 0 0,'-9'27'3701'0'0,"-32"91"5755"0"0,37-104-8986 0 0,0 1-1 0 0,1 2 1 0 0,0-1 0 0 0,0-4 0 0 0,2 4-1 0 0,0 30 1 0 0,1-31-175 0 0,0-14-266 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 4 0 0 0,0-4 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,4 1 1 0 0,1-1-12 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,7 0 0 0 0,-12 1-22 0 0,109-10-1013 0 0,-71 5-2203 0 0,0-3-3879 0 0,-8 3 5148 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="100544.5">4248 8166 3016 0 0,'19'0'5377'0'0,"54"7"3948"0"0,-72-7-9249 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,-14 333-428 0 0,14-308-2466 0 0,2-14 2147 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104116.93">3271 10054 10402 0 0,'-4'21'4481'0'0,"-3"14"-1902"0"0,-14 96 1665 0 0,16-84-4010 0 0,0 49 1 0 0,8 70-2536 0 0,-3-165 2421 0 0,0 25-403 0 0,-1 2-7978 0 0,3-70-739 0 0,-4-67 11832 0 0,0 70-725 0 0,1-5 1 0 0,2 6-1 0 0,2-5 0 0 0,9-42 1 0 0,-7 70-1625 0 0,-1-3 1 0 0,2 3 0 0 0,0 1-1 0 0,12-26 1 0 0,-16 35-369 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-3 0 0 0,5 1 0 0 0,-9 4-100 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 4-1 0 0,1-4 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,6 5 18 0 0,-1 1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 5 1 0 0,0-3-1 0 0,-1-2 0 0 0,3 1 1 0 0,-4 2-1 0 0,0-2 0 0 0,0 1 1 0 0,-1 3-1 0 0,-1-3 1 0 0,0 0-1 0 0,0-2 0 0 0,-4 2 1 0 0,3-1-1 0 0,0 1 0 0 0,-1 3 1 0 0,-1-4-1 0 0,0 1 1 0 0,0-1-1 0 0,-9 11 0 0 0,9-15-125 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 3 0 0 0,0-4 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,-6 1 0 0 0,7-1-303 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-5-1-1 0 0,-9-12-4103 0 0,17 1 3501 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104923.8">3507 10027 7657 0 0,'12'31'6699'0'0,"46"89"-372"0"0,-25-56-4874 0 0,-10-34-1281 0 0,-19-27-169 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-2 0 0 0,3 0-1 0 0,-2 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-2 1-1 0 0,6-2 1 0 0,-4 0-26 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-4 1 0 0,-1 4 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,3-7 0 0 0,-2 1 4 0 0,-1-4 0 0 0,0 4 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,-1 2 0 0 0,0-3 0 0 0,-3-18 0 0 0,3 28 22 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 3 9 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-2 16 50 0 0,1-3 1 0 0,0-1-1 0 0,4 29 1 0 0,-3-36-29 0 0,2-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 3 0 0 0,-1-4 0 0 0,9 12 0 0 0,-8-15-3 0 0,-1-2 0 0 0,1 2-1 0 0,1 0 1 0 0,-1-2 0 0 0,0 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,0-1-1 0 0,0 0 1 0 0,3-1 0 0 0,-3 1 0 0 0,0-1 0 0 0,4-2-1 0 0,-8 3-28 0 0,8-2-4 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 2 1 0 0,0-3-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-4 0 0 0,0 3 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,0 0 1 0 0,0 2-1 0 0,-1-2 0 0 0,0-1 0 0 0,-1-2 1 0 0,0 2-1 0 0,0 0 0 0 0,3-12 0 0 0,-1 1-36 0 0,0-4-1 0 0,-1 1 1 0 0,-2 3-1 0 0,0-5 0 0 0,-2 2 1 0 0,-1 3-1 0 0,0-5 1 0 0,0 2-1 0 0,-9-38 0 0 0,-2 32 26 0 0,3 18 60 0 0,7 11-43 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 4 1 0 0,0-4-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-7 39 48 0 0,3 1 0 0 0,1-1 0 0 0,2 1 0 0 0,11 81 0 0 0,-10-115-49 0 0,4 39 42 0 0,14 58 0 0 0,-17-95-23 0 0,1 1 0 0 0,0 0 0 0 0,-1 2 0 0 0,2-2-1 0 0,0 0 1 0 0,1-2 0 0 0,0-2 0 0 0,3 3 0 0 0,-2-1 0 0 0,0 1-1 0 0,0 2 1 0 0,11 8 0 0 0,-16-18-19 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 0 0 0 0,-1 0-5 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,2-2 0 0 0,15-27-50 0 0,-1 6 1 0 0,-1-7-1 0 0,-2 3 1 0 0,-1 1 0 0 0,-1-5-1 0 0,-2 4 1 0 0,-2-5-1 0 0,0 3 1 0 0,-2-3 0 0 0,-1 1-1 0 0,-2 0 1 0 0,-1 0-1 0 0,-2 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,-8-37 0 0 0,9 66 42 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-6-4 1 0 0,8 7 8 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-3 28 51 0 0,2 33 61 0 0,14 117 1 0 0,-9-146-525 0 0,3 4 1 0 0,-1-4 0 0 0,4 3 0 0 0,0-4 0 0 0,19 40 0 0 0,0-30-2064 0 0,-8-22-2278 0 0,-10-16-3126 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="105686.32">4511 10278 5049 0 0,'25'-10'7516'0'0,"96"-43"863"0"0,-107 47-8014 0 0,2 0-1 0 0,-4-2 1 0 0,1-1 0 0 0,11-13 0 0 0,-20 20-367 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 3 0 0 0,-1-3 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2-9 0 0 0,0 0-17 0 0,-1 9 4 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 3 1 0 0,0-3-1 0 0,-1 1 1 0 0,-1-12 0 0 0,2 15 11 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-2 0 0 0 0,-5 3 23 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 0 0 0 0,2 3 0 0 0,-2-2-1 0 0,-2-2 1 0 0,4 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 4-1 0 0,1-4 1 0 0,0 1 0 0 0,0-2 0 0 0,1 2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 10 0 0 0,1-2 32 0 0,1-4 1 0 0,1-1-1 0 0,0 0 1 0 0,1 2-1 0 0,0 2 0 0 0,1-2 1 0 0,0-1-1 0 0,1-3 1 0 0,0 2-1 0 0,11 24 1 0 0,-14-34-48 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 0 0 0 0,-2 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,32-10-94 0 0,-30 9 77 0 0,4-2-83 0 0,0 0-1 0 0,-1-4 0 0 0,0 3 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 2 1 0 0,0-3-1 0 0,-2 0 1 0 0,2 0-1 0 0,-1-3 0 0 0,-1 2 1 0 0,7-12-1 0 0,-5 11 88 0 0,-2-3 0 0 0,0-3-1 0 0,0 3 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,-1-5 1 0 0,0 5 0 0 0,-1-2 0 0 0,-1 0 0 0 0,-1-17-1 0 0,0 27 162 0 0,-1 5-79 0 0,-1 19 25 0 0,1-9-61 0 0,1 2-1 0 0,0 1 1 0 0,1-2-1 0 0,0 5 1 0 0,4 17-1 0 0,-3-29-5 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 3 1 0 0,0-4-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-2 1 0 0,3 1-1 0 0,-3 0 0 0 0,0 0 1 0 0,6 3-1 0 0,-9-6-31 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-2 1 0 0,6-1-4 0 0,6-7-22 0 0,1 2-1 0 0,-1-2 1 0 0,18-22 0 0 0,-26 27 8 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0-1 0 0 0,-1-2-1 0 0,1 2 1 0 0,-2 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-9 0 0 0,2-21 277 0 0,-2 66 121 0 0,2 29-309 0 0,9 49 28 0 0,-7-61 135 0 0,0 2 0 0 0,-2 5-1 0 0,-2-5 1 0 0,-7 69 0 0 0,2-89-157 0 0,-1-3 1 0 0,1-2-1 0 0,-3 4 0 0 0,-1-3 1 0 0,-1 0-1 0 0,-1 1 1 0 0,-1-3-1 0 0,-2 1 0 0 0,0 1 1 0 0,-15 18-1 0 0,23-36-54 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-2-1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,2 0 0 0 0,0 0 1 0 0,-6-2-1 0 0,7 2-34 0 0,1-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-3 0 0 0,2 4 0 0 0,-2-2 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-2-5 0 0 0,0-16-240 0 0,1 0 1 0 0,1-1-1 0 0,2 4 0 0 0,0-1 0 0 0,2-4 0 0 0,1 5 0 0 0,11-42 1 0 0,-8 41-1047 0 0,1-4 1 0 0,11-24 0 0 0,-12 37-1672 0 0,2 2 0 0 0,0 0-1 0 0,22-33 1 0 0,17-2 455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="100544.5">4248 8166 3016 0 0,'19'0'5377'0'0,"54"7"3948"0"0,-72-7-9249 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,-14 333-428 0 0,14-308-2466 0 0,2-14 2147 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104116.93">3271 10054 10402 0 0,'-4'21'4481'0'0,"-3"14"-1902"0"0,-14 96 1665 0 0,16-84-4010 0 0,0 49 1 0 0,8 70-2536 0 0,-3-165 2421 0 0,0 25-403 0 0,-1 2-7978 0 0,3-70-739 0 0,-4-67 11832 0 0,0 70-725 0 0,1-5 1 0 0,2 6-1 0 0,2-5 0 0 0,9-42 1 0 0,-7 70-1625 0 0,-1-3 1 0 0,2 3 0 0 0,0 1-1 0 0,12-26 1 0 0,-16 35-369 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 4 1 0 0,-1-3-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-3 0 0 0,5 1 0 0 0,-9 4-100 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 4-1 0 0,1-4 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,6 4 18 0 0,-1 3 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 5 1 0 0,0-3-1 0 0,-1-2 0 0 0,3 1 1 0 0,-4 2-1 0 0,0-2 0 0 0,0 1 1 0 0,-1 3-1 0 0,-1-3 1 0 0,0 0-1 0 0,0-2 0 0 0,-4 2 1 0 0,3-1-1 0 0,0 1 0 0 0,-1 3 1 0 0,-1-4-1 0 0,0 1 1 0 0,0-1-1 0 0,-9 11 0 0 0,9-15-125 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 3 0 0 0,0-4 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,-6 1 0 0 0,7-1-303 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-5-1-1 0 0,-9-12-4103 0 0,17 1 3501 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104923.8">3507 10027 7657 0 0,'12'31'6699'0'0,"46"89"-372"0"0,-25-56-4874 0 0,-10-34-1281 0 0,-19-27-169 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-2 0 0 0,3 0-1 0 0,-2 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-2 1-1 0 0,6-2 1 0 0,-4 0-26 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-4 1 0 0,-1 4 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,3-7 0 0 0,-2 1 4 0 0,-1-4 0 0 0,0 4 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,-1 2 0 0 0,0-3 0 0 0,-3-18 0 0 0,3 28 22 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 3 9 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-2 16 50 0 0,1-3 1 0 0,0-1-1 0 0,4 29 1 0 0,-3-36-29 0 0,2-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 3 0 0 0,-1-4 0 0 0,9 12 0 0 0,-8-15-3 0 0,-1-2 0 0 0,1 2-1 0 0,1 0 1 0 0,-1-2 0 0 0,0 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,0-1-1 0 0,0 0 1 0 0,3-1 0 0 0,-3 1 0 0 0,0-1 0 0 0,4-2-1 0 0,-8 3-28 0 0,8-2-4 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 2 1 0 0,0-3-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-4 0 0 0,0 3 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,0 0 1 0 0,0 2-1 0 0,-1-2 0 0 0,0-1 0 0 0,-1-2 1 0 0,0 2-1 0 0,0 0 0 0 0,3-12 0 0 0,-1 1-36 0 0,0-4-1 0 0,-1 1 1 0 0,-2 3-1 0 0,0-5 0 0 0,-2 2 1 0 0,-1 3-1 0 0,0-5 1 0 0,0 2-1 0 0,-9-38 0 0 0,-2 32 26 0 0,3 19 60 0 0,7 10-43 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 3 1 0 0,0-3-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-7 39 48 0 0,3 1 0 0 0,1-1 0 0 0,2 1 0 0 0,11 81 0 0 0,-10-115-49 0 0,4 39 42 0 0,14 58 0 0 0,-17-95-23 0 0,1 1 0 0 0,0 0 0 0 0,-1 2 0 0 0,2-2-1 0 0,0 0 1 0 0,1-2 0 0 0,0-2 0 0 0,3 3 0 0 0,-2-1 0 0 0,0 1-1 0 0,0 2 1 0 0,11 8 0 0 0,-16-18-19 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 0 0 0 0,-1 0-5 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,2-2 0 0 0,15-27-50 0 0,-1 6 1 0 0,-1-7-1 0 0,-2 3 1 0 0,-1 1 0 0 0,-1-5-1 0 0,-2 4 1 0 0,-2-5-1 0 0,0 3 1 0 0,-2-3 0 0 0,-1 1-1 0 0,-2 0 1 0 0,-1 0-1 0 0,-2 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,-8-37 0 0 0,9 66 42 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-6-4 1 0 0,8 7 8 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-3 28 51 0 0,2 33 61 0 0,14 117 1 0 0,-9-146-525 0 0,3 4 1 0 0,-1-4 0 0 0,4 3 0 0 0,0-4 0 0 0,19 40 0 0 0,0-30-2064 0 0,-8-22-2278 0 0,-10-16-3126 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="105686.32">4511 10278 5049 0 0,'25'-10'7516'0'0,"96"-43"863"0"0,-107 47-8014 0 0,2 0-1 0 0,-4-2 1 0 0,1-1 0 0 0,11-13 0 0 0,-20 20-367 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 3 0 0 0,-1-3 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2-9 0 0 0,0 0-17 0 0,-1 9 4 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 2 1 0 0,0-1-1 0 0,-1 0 1 0 0,-1-12 0 0 0,2 15 11 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-2 0 0 0 0,-5 3 23 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 0 0 0 0,2 3 0 0 0,-2-2-1 0 0,-2-2 1 0 0,4 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 4-1 0 0,1-4 1 0 0,0 1 0 0 0,0-2 0 0 0,1 2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 10 0 0 0,1-2 32 0 0,1-3 1 0 0,1-3-1 0 0,0 1 1 0 0,1 2-1 0 0,0 2 0 0 0,1-2 1 0 0,0 0-1 0 0,1-5 1 0 0,0 3-1 0 0,11 24 1 0 0,-14-34-48 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 0 0 0 0,-2 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,32-10-94 0 0,-30 9 77 0 0,4-2-83 0 0,0 0-1 0 0,-1-4 0 0 0,0 3 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 2 1 0 0,0-3-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-3 0 0 0,-1 2 1 0 0,7-12-1 0 0,-5 11 88 0 0,-2-3 0 0 0,0-3-1 0 0,0 3 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,-1-5 1 0 0,0 5 0 0 0,-1-2 0 0 0,-1 0 0 0 0,-1-17-1 0 0,0 27 162 0 0,-1 5-79 0 0,-1 19 25 0 0,1-9-61 0 0,1 2-1 0 0,0 1 1 0 0,1-2-1 0 0,0 5 1 0 0,4 17-1 0 0,-3-29-5 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 3 1 0 0,0-4-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-2 1 0 0,3 1-1 0 0,-3 0 0 0 0,0 0 1 0 0,6 3-1 0 0,-9-6-31 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-2 1 0 0,6-1-4 0 0,6-7-22 0 0,1 2-1 0 0,-1-2 1 0 0,18-22 0 0 0,-26 27 8 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0-1 0 0 0,-1-2-1 0 0,1 2 1 0 0,-2 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-9 0 0 0,2-21 277 0 0,-2 66 121 0 0,2 29-309 0 0,9 49 28 0 0,-7-61 135 0 0,0 2 0 0 0,-2 5-1 0 0,-2-5 1 0 0,-7 69 0 0 0,2-89-157 0 0,-1-3 1 0 0,1-2-1 0 0,-3 4 0 0 0,-1-3 1 0 0,-1 0-1 0 0,-1 1 1 0 0,-1-3-1 0 0,-2 1 0 0 0,0 1 1 0 0,-15 18-1 0 0,23-36-54 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-2-1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,2 0 0 0 0,0 0 1 0 0,-6-2-1 0 0,7 2-34 0 0,1-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-4 0 0 0,3 6 0 0 0,-4-3 0 0 0,1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-2-5 0 0 0,0-16-240 0 0,1 0 1 0 0,1-1-1 0 0,2 4 0 0 0,0-1 0 0 0,2-3 0 0 0,1 3 0 0 0,11-41 1 0 0,-8 41-1047 0 0,1-4 1 0 0,11-24 0 0 0,-12 37-1672 0 0,2 2 0 0 0,0 0-1 0 0,22-33 1 0 0,17-2 455 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="107568.19">3823 2105 2264 0 0,'0'0'1264'0'0,"2"-114"11611"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="107752.3">3813 1969 16947 0 0,'-54'-109'468'0'0,"-4"4"0"0"0,-9 3 1 0 0,2-2-1 0 0,-88-92 0 0 0,135 179-198 0 0,2 2 0 0 0,-1 2 0 0 0,-34-29 0 0 0,6 6-29 0 0,41 33-182 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="108082.9">3268 1228 20908 0 0,'-42'-89'139'0'0,"50"184"1042"0"0,-5-69-1157 0 0,-3-22-31 0 0,-1-27-23 0 0,-18-159-85 0 0,19 179 116 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 2 0 0 0,1-4-1 0 0,-1 4 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,4 0-1 0 0,11-3 18 0 0,0 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-2 1 1 0 0,2 1-1 0 0,0 0 0 0 0,28 5 0 0 0,40 9-1769 0 0,-6 5-5130 0 0,-51-13 5483 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="109214.86">3431 1183 392 0 0,'-12'23'6034'0'0,"1"-6"-4032"0"0,5-7-594 0 0,1-1 0 0 0,-1 2 0 0 0,2 0 0 0 0,-5 16 0 0 0,8-23-1229 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-2 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 4-1 0 0,0-4 1 0 0,4 5-1 0 0,41 44-9489 0 0,-21-4 7712 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110561.68">2186 506 5273 0 0,'0'24'4914'0'0,"-3"69"2937"0"0,3 27-5773 0 0,9-128-2154 0 0,8-19 12 0 0,-1 1-1 0 0,21-50 1 0 0,-7 14 37 0 0,-30 61 39 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,7 10 124 0 0,-4-4-62 0 0,12 16 53 0 0,-4 6-1 0 0,22 41 1 0 0,29 45 261 0 0,-63-112-380 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1-2 0 0 0,4-9-7 0 0,0 0-1 0 0,-1 1 1 0 0,0-5-1 0 0,0 3 1 0 0,-2 3-1 0 0,1-3 1 0 0,-2 0 0 0 0,0-3-1 0 0,1-16 1 0 0,-1 14 5 0 0,0-4-1 0 0,1 3 1 0 0,1 3 0 0 0,11-38 0 0 0,-9 53 103 0 0,1 12-114 0 0,-6-9 8 0 0,29 49-258 0 0,-8 2-2281 0 0,8 36-4829 0 0,-23-57 5570 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110855.08">2880 526 2920 0 0,'-11'17'9653'0'0,"2"-7"-8451"0"0,1 0 1 0 0,0 2 0 0 0,1 0 0 0 0,-7 18-1 0 0,14-28-1150 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,2 0 0 0 0,-1 1-42 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-1 0 0 0,-4 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,5-2 0 0 0,-1 0-13 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-4 0 0 0,0 3 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-2-2 1 0 0,6-7-1 0 0,-9 12-16 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-4 1 0 0,-1 4 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-2-1-195 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 3 0 0 0,-6-5-1 0 0,8 5 121 0 0,-46-16-2664 0 0,6 7-3064 0 0,32 5 4627 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111104.09">3106 262 7729 0 0,'0'0'9202'0'0,"-20"164"-4257"0"0,24-80-4937 0 0,12-27-184 0 0,-9-36-240 0 0,0 4-296 0 0,4 8-776 0 0,-4-4-1553 0 0,-7-22-3048 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="108082.9">3268 1228 20908 0 0,'-42'-89'139'0'0,"50"183"1042"0"0,-5-67-1157 0 0,-3-23-31 0 0,-1-27-23 0 0,-18-159-85 0 0,19 179 116 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 3 0 0 0,1-3-1 0 0,-1 3 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,3 0-1 0 0,13-3 18 0 0,-1 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-2 1 1 0 0,2 1-1 0 0,0 0 0 0 0,28 5 0 0 0,40 9-1769 0 0,-6 5-5130 0 0,-51-13 5483 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="109214.86">3431 1183 392 0 0,'-12'23'6034'0'0,"1"-6"-4032"0"0,5-7-594 0 0,1-1 0 0 0,-1 2 0 0 0,2 0 0 0 0,-5 16 0 0 0,8-23-1229 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 4-1 0 0,0-4 1 0 0,4 5-1 0 0,41 44-9489 0 0,-21-4 7712 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110561.68">2186 506 5273 0 0,'0'24'4914'0'0,"-3"69"2937"0"0,3 27-5773 0 0,9-128-2154 0 0,8-19 12 0 0,-1 1-1 0 0,21-50 1 0 0,-7 14 37 0 0,-30 61 39 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,7 10 124 0 0,-4-4-62 0 0,12 16 53 0 0,-4 6-1 0 0,22 41 1 0 0,29 45 261 0 0,-63-112-380 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-2-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-2 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1-2 0 0 0,4-9-7 0 0,0 0-1 0 0,-1 1 1 0 0,0-5-1 0 0,0 4 1 0 0,-2 1-1 0 0,1-2 1 0 0,-2 0 0 0 0,0-3-1 0 0,1-16 1 0 0,-1 14 5 0 0,0-4-1 0 0,1 3 1 0 0,1 3 0 0 0,11-38 0 0 0,-9 53 103 0 0,1 12-114 0 0,-6-9 8 0 0,29 49-258 0 0,-8 2-2281 0 0,8 36-4829 0 0,-23-57 5570 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110855.08">2880 526 2920 0 0,'-11'17'9653'0'0,"2"-7"-8451"0"0,1 0 1 0 0,0 2 0 0 0,1 0 0 0 0,-7 18-1 0 0,14-28-1150 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 3 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,2 0 0 0 0,-1 1-42 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-1 0 0 0,-4 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,5-2 0 0 0,-1 0-13 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-4 0 0 0,0 3 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-2-2 1 0 0,6-7-1 0 0,-9 12-16 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-4 1 0 0,-1 4 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-2-1-195 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 3 0 0 0,-6-5-1 0 0,8 5 121 0 0,-46-16-2664 0 0,6 7-3064 0 0,32 5 4627 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111104.09">3106 261 7729 0 0,'0'0'9202'0'0,"-20"165"-4257"0"0,24-81-4937 0 0,12-27-184 0 0,-9-36-240 0 0,0 4-296 0 0,4 8-776 0 0,-4-4-1553 0 0,-7-22-3048 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111462.84">3016 610 824 0 0,'25'-24'6568'0'0,"-5"7"-4476"0"0,3-3-243 0 0,3-1 1 0 0,1-2-1 0 0,4 5 0 0 0,34-20 0 0 0,-59 34-1846 0 0,59-26 320 0 0,-52 27-112 0 0,-2 3 214 0 0,-21 19-294 0 0,-6 7-93 0 0,1-3-16 0 0,-23 45 0 0 0,35-63-4 0 0,0 1-1 0 0,0-1 1 0 0,1 2-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,1-3-1 0 0,0 1 1 0 0,1-1 0 0 0,-1-1-1 0 0,1 1 1 0 0,1-1-1 0 0,0 8 1 0 0,0-13-6 0 0,-1 0-3 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 3 0 0 0,-1-4-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,12 0 14 0 0,-1-1-1 0 0,0 0 0 0 0,2-1 0 0 0,-1-1 1 0 0,24-10-1 0 0,-30 11-19 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,3-1 1 0 0,-4-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,9-14 1 0 0,-14 18-27 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 3 0 0 0,0-3-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-3-4 1 0 0,1-5-132 0 0,-1 3-154 0 0,-1 0 0 0 0,0 0 0 0 0,0 3 1 0 0,-11-15-1 0 0,-3 2-2546 0 0,3 3-3492 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111662.02">3524 423 1328 0 0,'0'0'7777'0'0,"120"50"3578"0"0,-87-30-10147 0 0,-26-70-1520 0 0,17-48 16 0 0,8 39-344 0 0,-2 35-2817 0 0,-15 14 3457 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112370.34">4209 299 1800 0 0,'-1'21'7512'0'0,"0"68"2761"0"0,4 46-7601 0 0,15 65-3944 0 0,-17-193 855 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,5 6 0 0 0,-6-23-10568 0 0,-13-53 5572 0 0,-7-21 4377 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112619.69">4206 372 6041 0 0,'0'0'4457'0'0,"75"-120"3040"0"0,-36 78-6448 0 0,-7 23-33 0 0,-24 19-688 0 0,15 26-48 0 0,0 50-176 0 0,-41 22-128 0 0,-15-46-176 0 0,7-19-104 0 0,3-14-280 0 0,-29 15-425 0 0,18-16-831 0 0,21-18-2825 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="113421.28">4496 235 1072 0 0,'11'26'6764'0'0,"35"69"3517"0"0,-44-92-10171 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 4 0 0 0,-1-4 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,6 1 0 0 0,-6-2-124 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,-1 0 0 0 0,4-1-1 0 0,-3 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0-1-1 0 0,0-2 1 0 0,0 3 0 0 0,-1-1-1 0 0,0 0 1 0 0,3-5 0 0 0,0-2 19 0 0,0-1 0 0 0,-1 1-1 0 0,0-5 1 0 0,-2 2 0 0 0,1 2 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0-3 0 0 0,0 3 0 0 0,-3-14 0 0 0,2 8 263 0 0,2 41-233 0 0,1-1 1 0 0,1-1 0 0 0,9 30-1 0 0,-10-44-20 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 4 0 0 0,0-4 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,9 9-1 0 0,-8-12-4 0 0,-2-1 1 0 0,1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-3-1 0 0,-1 2 1 0 0,4 1 0 0 0,-4-1-1 0 0,8-6 1 0 0,-7 4-24 0 0,-1 0 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-4 0 0 0,0 4 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 2-1 0 0,0-2 0 0 0,0-10 0 0 0,-1-1-49 0 0,0 0 1 0 0,-1 1 0 0 0,0-3 0 0 0,-2 1 0 0 0,-6-26 0 0 0,2 18 31 0 0,6 21 54 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-2 1 0 0,-1 2 0 0 0,-5-11-1 0 0,6 14 9 0 0,-2-1 76 0 0,4 20 19 0 0,12 57-8 0 0,23 48-28 0 0,-33-112-103 0 0,1 0 0 0 0,1 0-1 0 0,0 3 1 0 0,0-3 0 0 0,1-2-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,14 15 1 0 0,-20-21 7 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,22-38-27 0 0,-19 29 15 0 0,1-2 0 0 0,-1 2 0 0 0,-1-2 0 0 0,0-3 0 0 0,0 4 0 0 0,-2-1-1 0 0,1-1 1 0 0,-1-21 0 0 0,-3-2-86 0 0,-11-67 0 0 0,10 98 558 0 0,1 16-333 0 0,1 32-81 0 0,2-30-59 0 0,1-1 0 0 0,0 3 0 0 0,0-4 0 0 0,1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 3 0 0 0,1-4 0 0 0,3 1 0 0 0,6 10 1 0 0,-8-12-769 0 0,0 3 1 0 0,1-3 0 0 0,1-3 0 0 0,16 14-1 0 0,-14-12-1437 0 0,0-2-1 0 0,0 1 1 0 0,1-1 0 0 0,18 11-1 0 0,-5-10 786 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="114177.07">5378 286 2920 0 0,'14'-13'7482'0'0,"4"0"-4874"0"0,-5 2-1019 0 0,3-4 0 0 0,-4 4 1 0 0,18-25-1 0 0,-29 35-1579 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-3 0 0 0,1 4-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-4 2 0 0 0,-3 0 31 0 0,2 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 2 1 0 0,0 3-1 0 0,1-3 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 2 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 5 1 0 0,2-5-16 0 0,-1 3 1 0 0,1-4-1 0 0,1 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,0 2 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 2 1 0 0,0-3-1 0 0,1 1 0 0 0,-1-1 1 0 0,1-2-1 0 0,0 2 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,6 6 1 0 0,-6-8-26 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3 0 1 0 0,-3 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,2-1 0 0 0,-1 1 0 0 0,7-3 1 0 0,-5 2-8 0 0,10-2-36 0 0,0-1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 0 0 0 0,0-5 0 0 0,-1 4 1 0 0,0-1-1 0 0,15-17 0 0 0,-24 23 25 0 0,0-1 0 0 0,-1-3-1 0 0,0 4 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-7 0 0 0,-2-3 59 0 0,0 4 1 0 0,0 0 0 0 0,-7-23 0 0 0,5 26 245 0 0,1 9-174 0 0,1 10 13 0 0,1-1-95 0 0,0 1-1 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,2 3-1 0 0,-1-5 0 0 0,2 2 1 0 0,-1-1-1 0 0,1 1 0 0 0,13 19 0 0 0,-15-27-26 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,3 0 0 0 0,37-5-27 0 0,-38 3 13 0 0,0 2 0 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-3 0 0 0,-1 2-1 0 0,-1 1 1 0 0,1-1 0 0 0,5-6 0 0 0,-8 8 5 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-4 0 0 0,5-76 542 0 0,41 402-37 0 0,-46-319-497 0 0,7 39 106 0 0,-3-6 0 0 0,-1 7 0 0 0,-3 59 0 0 0,-2-74-40 0 0,-1-3 0 0 0,-1-2 0 0 0,-1 4 0 0 0,-1-3 0 0 0,-1-1 0 0 0,-17 39 0 0 0,23-58-58 0 0,0-3-1 0 0,0 3 1 0 0,-1 0-1 0 0,1 3 1 0 0,-1-4-1 0 0,0 1 1 0 0,0-2-1 0 0,0 2 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-3-1-1 0 0,1 0-10 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-4 1 0 0,-8-3 0 0 0,6 2-18 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-3 0-1 0 0,4 0 0 0 0,0-4 1 0 0,0 5-1 0 0,1-3 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 1 0 0,0-14-1 0 0,1-11-382 0 0,7-70 0 0 0,-7 98 352 0 0,1-2-5 0 0,18-86-2154 0 0,-16 84 1305 0 0,0 0-1 0 0,0 0 1 0 0,1-3-1 0 0,8-10 1 0 0,22-14-193 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111662.02">3524 423 1328 0 0,'0'0'7777'0'0,"120"50"3578"0"0,-87-30-10147 0 0,-26-70-1520 0 0,17-48 16 0 0,8 39-344 0 0,-2 34-2817 0 0,-15 16 3457 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112370.34">4209 299 1800 0 0,'-1'21'7512'0'0,"0"68"2761"0"0,4 46-7601 0 0,15 65-3944 0 0,-17-193 855 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,5 4 0 0 0,-6-22-10568 0 0,-13-53 5572 0 0,-7-21 4377 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112619.69">4207 372 6041 0 0,'0'0'4457'0'0,"74"-120"3040"0"0,-35 78-6448 0 0,-7 23-33 0 0,-24 19-688 0 0,15 26-48 0 0,0 50-176 0 0,-41 22-128 0 0,-15-46-176 0 0,7-19-104 0 0,3-14-280 0 0,-29 15-425 0 0,18-16-831 0 0,21-18-2825 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="113421.28">4496 235 1072 0 0,'11'26'6764'0'0,"35"69"3517"0"0,-44-92-10171 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 4 0 0 0,-1-4 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-3 0 0 0,0 0 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,6 1 0 0 0,-6-2-124 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,-1 0 0 0 0,4-1-1 0 0,-3 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0-1-1 0 0,0-2 1 0 0,0 3 0 0 0,-1-1-1 0 0,0 0 1 0 0,3-5 0 0 0,0-2 19 0 0,0-2 0 0 0,-1 3-1 0 0,0-6 1 0 0,-2 2 0 0 0,1 2 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0-3 0 0 0,0 3 0 0 0,-3-14 0 0 0,2 8 263 0 0,2 41-233 0 0,1-1 1 0 0,1-1 0 0 0,9 30-1 0 0,-10-44-20 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 4 0 0 0,0-4 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,9 9-1 0 0,-8-12-4 0 0,-2-1 1 0 0,1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-3-1 0 0,-1 2 1 0 0,4 1 0 0 0,-4-1-1 0 0,8-6 1 0 0,-7 4-24 0 0,-1 0 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-4 0 0 0,0 4 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-11 0 0 0,-1-1-49 0 0,0 0 1 0 0,-1 1 0 0 0,0-3 0 0 0,-2 1 0 0 0,-6-26 0 0 0,2 18 31 0 0,6 21 54 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-2 1 0 0,-1 2 0 0 0,-5-11-1 0 0,6 14 9 0 0,-2-1 76 0 0,4 20 19 0 0,12 57-8 0 0,23 48-28 0 0,-33-112-103 0 0,1 0 0 0 0,1 0-1 0 0,0 3 1 0 0,0-3 0 0 0,1-2-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,14 15 1 0 0,-20-21 7 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,22-38-27 0 0,-19 29 15 0 0,1-2 0 0 0,-1 2 0 0 0,-1-2 0 0 0,0-3 0 0 0,0 4 0 0 0,-2-1-1 0 0,1-1 1 0 0,-1-21 0 0 0,-3-2-86 0 0,-11-67 0 0 0,10 98 558 0 0,1 16-333 0 0,1 32-81 0 0,2-30-59 0 0,1-1 0 0 0,0 3 0 0 0,0-4 0 0 0,1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 3 0 0 0,1-4 0 0 0,3 1 0 0 0,6 10 1 0 0,-8-12-769 0 0,0 3 1 0 0,1-3 0 0 0,1-3 0 0 0,16 14-1 0 0,-14-12-1437 0 0,0-2-1 0 0,0 1 1 0 0,1-1 0 0 0,18 11-1 0 0,-5-10 786 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="114177.07">5378 286 2920 0 0,'14'-13'7482'0'0,"4"0"-4874"0"0,-5 2-1019 0 0,3-4 0 0 0,-4 4 1 0 0,18-26-1 0 0,-29 37-1579 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-3 0 0 0,1 4-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-4 2 0 0 0,-3 0 31 0 0,2 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 2 1 0 0,0 3-1 0 0,1-3 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 5 1 0 0,2-5-16 0 0,-1 3 1 0 0,1-4-1 0 0,1 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 2 1 0 0,0-3-1 0 0,1 1 0 0 0,-1-1 1 0 0,1-2-1 0 0,0 2 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,6 6 1 0 0,-6-8-26 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3 0 1 0 0,-3 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,2-1 0 0 0,-1 1 0 0 0,7-3 1 0 0,-5 2-8 0 0,10-2-36 0 0,0-1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 0 0 0 0,0-5 0 0 0,-1 4 1 0 0,0-1-1 0 0,15-17 0 0 0,-24 23 25 0 0,0-1 0 0 0,-1-3-1 0 0,0 4 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-8 0 0 0,-2-1 59 0 0,0 3 1 0 0,0 0 0 0 0,-7-23 0 0 0,5 26 245 0 0,1 9-174 0 0,1 10 13 0 0,1-1-95 0 0,0 1-1 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,2 3-1 0 0,-1-5 0 0 0,2 2 1 0 0,-1-1-1 0 0,1 1 0 0 0,13 19 0 0 0,-15-27-26 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,3 0 0 0 0,37-5-27 0 0,-38 2 13 0 0,0 3 0 0 0,0 0 0 0 0,0-2-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-3 0 0 0,-1 2-1 0 0,-1 1 1 0 0,1-1 0 0 0,5-6 0 0 0,-8 8 5 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-4 0 0 0,5-76 542 0 0,41 402-37 0 0,-46-319-497 0 0,7 39 106 0 0,-3-6 0 0 0,-1 7 0 0 0,-3 59 0 0 0,-2-74-40 0 0,-1-3 0 0 0,-1-2 0 0 0,-1 4 0 0 0,-1-3 0 0 0,-1-1 0 0 0,-17 39 0 0 0,23-57-58 0 0,0-4-1 0 0,0 2 1 0 0,-1 1-1 0 0,1 3 1 0 0,-1-4-1 0 0,0 1 1 0 0,0-2-1 0 0,0 2 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-3-1-1 0 0,1 0-10 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-4 1 0 0,-8-3 0 0 0,6 2-18 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-3 0-1 0 0,4 0 0 0 0,0-4 1 0 0,0 5-1 0 0,1-3 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 1 0 0,0-14-1 0 0,1-11-382 0 0,7-70 0 0 0,-7 98 352 0 0,1-2-5 0 0,18-86-2154 0 0,-16 84 1305 0 0,0 0-1 0 0,0 0 1 0 0,1-3-1 0 0,8-10 1 0 0,22-14-193 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5211,10 +5249,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A08E02-1046-4F05-95F6-E4157CF47D8A}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5227,13 +5265,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:9" s="33" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -5418,6 +5456,26 @@
       </c>
       <c r="E12" s="26" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="40">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="40">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -5457,12 +5515,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1">
       <c r="A2" s="34" t="s">
@@ -5523,8 +5581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246A17D6-B2D0-4697-9858-1E7BF0498BCC}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5569,7 +5627,7 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -5590,7 +5648,7 @@
       </c>
       <c r="B4">
         <f>B2*9.81*B3/1000</f>
-        <v>2.9430000000000001</v>
+        <v>5.8860000000000001</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -5621,7 +5679,7 @@
       </c>
       <c r="G5">
         <f>B10/G4</f>
-        <v>6.7508602013508359</v>
+        <v>13.501720402701672</v>
       </c>
       <c r="H5" t="s">
         <v>104</v>
@@ -5633,7 +5691,7 @@
       </c>
       <c r="B6">
         <f>B5*B4</f>
-        <v>4.4145000000000003</v>
+        <v>8.8290000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5655,7 +5713,7 @@
       </c>
       <c r="G7">
         <f>G5^2*G2</f>
-        <v>8.4767851032219728</v>
+        <v>33.907140412887891</v>
       </c>
       <c r="H7" t="s">
         <v>78</v>
@@ -5667,7 +5725,7 @@
       </c>
       <c r="B8">
         <f>B6*B7*2*PI()/60</f>
-        <v>11.4777</v>
+        <v>22.955400000000001</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
@@ -5677,7 +5735,7 @@
       </c>
       <c r="G8">
         <f>G7+B8</f>
-        <v>19.954485103221973</v>
+        <v>56.862540412887896</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5704,14 +5762,14 @@
       </c>
       <c r="B10">
         <f>B6/B9</f>
-        <v>0.61957894736842112</v>
+        <v>1.2391578947368422</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10">
         <f>B10/9.81*100</f>
-        <v>6.3157894736842106</v>
+        <v>12.631578947368421</v>
       </c>
       <c r="E10" t="s">
         <v>80</v>
@@ -5721,7 +5779,7 @@
       </c>
       <c r="G10">
         <f>G8/G9</f>
-        <v>0.89885068032531401</v>
+        <v>2.5613756942742292</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5758,7 +5816,7 @@
       </c>
       <c r="G12">
         <f>G11/1000/G10</f>
-        <v>3.3375955157693529</v>
+        <v>1.1712455953674754</v>
       </c>
       <c r="H12" t="s">
         <v>191</v>
@@ -5809,7 +5867,7 @@
       </c>
       <c r="B17">
         <f>POWER(2*B6*B16/(B15*10^6*PI()), 1/3)</f>
-        <v>3.0209514009945119E-3</v>
+        <v>3.8061602608223956E-3</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -5824,7 +5882,7 @@
       </c>
       <c r="B18">
         <f>B17*2*1000</f>
-        <v>6.041902801989024</v>
+        <v>7.6123205216447909</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -5836,7 +5894,7 @@
       </c>
       <c r="B19" s="5">
         <f>B18/25.4</f>
-        <v>0.23787018905468599</v>
+        <v>0.29969765833247208</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
@@ -5865,7 +5923,7 @@
       </c>
       <c r="C22">
         <f>B10</f>
-        <v>0.61957894736842112</v>
+        <v>1.2391578947368422</v>
       </c>
       <c r="D22">
         <f>B11</f>
@@ -5881,7 +5939,7 @@
       </c>
       <c r="C23">
         <f>C22*B24</f>
-        <v>1.4715000000000003</v>
+        <v>2.9430000000000005</v>
       </c>
       <c r="D23">
         <f>D22/B24</f>
@@ -5906,7 +5964,7 @@
       </c>
       <c r="C25">
         <f>C23</f>
-        <v>1.4715000000000003</v>
+        <v>2.9430000000000005</v>
       </c>
       <c r="D25">
         <f>D23</f>
@@ -5922,7 +5980,7 @@
       </c>
       <c r="C26">
         <f>C25*B26/B25</f>
-        <v>4.4145000000000003</v>
+        <v>8.8290000000000006</v>
       </c>
       <c r="D26">
         <f>D25*B25/B26</f>
@@ -5949,7 +6007,7 @@
       </c>
       <c r="B30">
         <f>B8</f>
-        <v>11.4777</v>
+        <v>22.955400000000001</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
@@ -5969,14 +6027,14 @@
       </c>
       <c r="B32">
         <f>B30*B31</f>
-        <v>22.955400000000001</v>
+        <v>45.910800000000002</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="D32">
         <f>B32/1000</f>
-        <v>2.2955400000000001E-2</v>
+        <v>4.5910800000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6156,7 +6214,7 @@
       </c>
       <c r="B59">
         <f>B32*B58/(B56*B52)</f>
-        <v>114.77700000000002</v>
+        <v>229.55400000000003</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6165,7 +6223,7 @@
       </c>
       <c r="B60">
         <f>ROUND(B59, 0)</f>
-        <v>115</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6431,7 +6489,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6442,7 +6500,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="16" t="s">
         <v>139</v>
       </c>
@@ -8530,13 +8588,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -8678,7 +8736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707005E9-0683-4EEB-9F97-B1BC34D93368}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -8692,13 +8750,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1">
       <c r="A2" s="9" t="s">
